--- a/data/trans_orig/P14C97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C97-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F10A2D-8D90-48E1-953C-836287525603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA72D016-946E-4446-B934-A8188B624FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3C796A2-B00D-412D-830D-5EB44A30DE34}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3CEC6E38-987D-4A04-9F2D-8F1D1793BB9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="190">
   <si>
     <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2015 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>62,28%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,16 +113,16 @@
     <t>26,02%</t>
   </si>
   <si>
-    <t>64,08%</t>
+    <t>64,18%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,13 +137,13 @@
     <t>11,7%</t>
   </si>
   <si>
-    <t>48,44%</t>
+    <t>58,01%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>24,81%</t>
+    <t>24,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,55 +155,49 @@
     <t>78,22%</t>
   </si>
   <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>53,37%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>46,63%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -212,19 +206,19 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -233,55 +227,55 @@
     <t>58,66%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>74,69%</t>
   </si>
   <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>41,34%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -290,13 +284,13 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>13,67%</t>
+    <t>12,02%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>9,21%</t>
+    <t>9,84%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -305,79 +299,76 @@
     <t>64,21%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>31,13%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -386,76 +377,76 @@
     <t>51,28%</t>
   </si>
   <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>67,08%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>61,57%</t>
   </si>
   <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>25,78%</t>
+    <t>23,12%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>12,78%</t>
+    <t>13,05%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -464,52 +455,52 @@
     <t>71,0%</t>
   </si>
   <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>14,16%</t>
+    <t>14,59%</t>
   </si>
   <si>
     <t>30,16%</t>
@@ -518,100 +509,100 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>18,76%</t>
+    <t>20,28%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>9,27%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>29,51%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1026,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5AE901-ECF5-4E82-90C3-0660A21907E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497819BA-D0E8-4E30-A589-BFA3F9CAA074}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1362,7 +1353,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -1371,13 +1362,13 @@
         <v>17255</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -1386,13 +1377,13 @@
         <v>27880</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,13 +1398,13 @@
         <v>2958</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1422,13 +1413,13 @@
         <v>7460</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1437,13 +1428,13 @@
         <v>10419</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1473,13 +1464,13 @@
         <v>2811</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1488,13 +1479,13 @@
         <v>2811</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1550,7 +1541,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1562,13 +1553,13 @@
         <v>8244</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -1577,13 +1568,13 @@
         <v>35947</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1592,13 +1583,13 @@
         <v>44191</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1604,13 @@
         <v>5810</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1628,13 +1619,13 @@
         <v>10312</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1643,13 +1634,13 @@
         <v>16122</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1679,13 +1670,13 @@
         <v>1866</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1694,13 +1685,13 @@
         <v>1866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,7 +1747,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1768,13 +1759,13 @@
         <v>21913</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -1783,13 +1774,13 @@
         <v>46859</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -1798,13 +1789,13 @@
         <v>68773</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1810,13 @@
         <v>6673</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -1837,10 +1828,10 @@
         <v>31</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -1849,13 +1840,13 @@
         <v>23344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1861,13 @@
         <v>5541</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -1885,13 +1876,13 @@
         <v>8173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -1900,13 +1891,13 @@
         <v>13715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,7 +1953,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1974,13 +1965,13 @@
         <v>17065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -1989,13 +1980,13 @@
         <v>41662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -2004,13 +1995,13 @@
         <v>58727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2016,13 @@
         <v>12994</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -2040,13 +2031,13 @@
         <v>18168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2055,13 +2046,13 @@
         <v>31162</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2067,13 @@
         <v>3218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2091,13 +2082,13 @@
         <v>2276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2106,13 +2097,13 @@
         <v>5495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2159,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2180,13 +2171,13 @@
         <v>22948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -2195,13 +2186,13 @@
         <v>65255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>79</v>
@@ -2210,13 +2201,13 @@
         <v>88202</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2222,13 @@
         <v>7489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -2246,13 +2237,13 @@
         <v>17891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -2261,13 +2252,13 @@
         <v>25380</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2273,13 @@
         <v>1886</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2297,13 +2288,13 @@
         <v>2344</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2312,13 +2303,13 @@
         <v>4230</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2377,13 @@
         <v>86866</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>190</v>
@@ -2401,13 +2392,13 @@
         <v>211691</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>275</v>
@@ -2416,13 +2407,13 @@
         <v>298557</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2428,13 @@
         <v>36930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>66</v>
@@ -2452,13 +2443,13 @@
         <v>72472</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
@@ -2467,13 +2458,13 @@
         <v>109402</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2479,13 @@
         <v>10645</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -2503,13 +2494,13 @@
         <v>18356</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -2518,13 +2509,13 @@
         <v>29001</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2571,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C97-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA72D016-946E-4446-B934-A8188B624FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6993DF-0BF6-4AFD-921E-938460AFAE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3CEC6E38-987D-4A04-9F2D-8F1D1793BB9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A6A08F9-BCB9-4CF0-976B-091E2A012AA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="190">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2015 (Tasa respuesta: 6,15%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="191">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 1 en 2016 (Tasa respuesta: 6,15%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>85,78%</t>
   </si>
   <si>
-    <t>42,94%</t>
+    <t>42,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>62,28%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>73,64%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>57,06%</t>
+    <t>57,72%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>64,18%</t>
+    <t>65,01%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,13 +137,13 @@
     <t>11,7%</t>
   </si>
   <si>
-    <t>58,01%</t>
+    <t>48,5%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>24,8%</t>
+    <t>30,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,49 +155,55 @@
     <t>78,22%</t>
   </si>
   <si>
-    <t>53,37%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>46,63%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -206,19 +212,19 @@
     <t>10,21%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -227,55 +233,52 @@
     <t>58,66%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>74,69%</t>
   </si>
   <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>41,34%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -284,13 +287,13 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>12,02%</t>
+    <t>12,86%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>9,84%</t>
+    <t>10,6%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -299,76 +302,79 @@
     <t>64,21%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>31,13%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -377,76 +383,73 @@
     <t>51,28%</t>
   </si>
   <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>67,62%</t>
   </si>
   <si>
     <t>67,08%</t>
   </si>
   <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>61,57%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>39,05%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>18,5%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>23,12%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>13,05%</t>
+    <t>12,83%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -455,154 +458,154 @@
     <t>71,0%</t>
   </si>
   <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>86,28%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>20,28%</t>
+    <t>18,09%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>9,56%</t>
+    <t>9,18%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>69,98%</t>
   </si>
   <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,62%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1017,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497819BA-D0E8-4E30-A589-BFA3F9CAA074}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26541844-048B-4157-8B74-F54301DD0568}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1353,7 +1356,7 @@
         <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -1362,13 +1365,13 @@
         <v>17255</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -1377,13 +1380,13 @@
         <v>27880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1398,13 +1401,13 @@
         <v>2958</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1413,13 +1416,13 @@
         <v>7460</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1428,13 +1431,13 @@
         <v>10419</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,7 +1458,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1464,13 +1467,13 @@
         <v>2811</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1479,13 +1482,13 @@
         <v>2811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,7 +1544,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1553,13 +1556,13 @@
         <v>8244</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -1568,13 +1571,13 @@
         <v>35947</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1583,13 +1586,13 @@
         <v>44191</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,13 +1607,13 @@
         <v>5810</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1619,13 +1622,13 @@
         <v>10312</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1634,13 +1637,13 @@
         <v>16122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,7 +1664,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1670,13 +1673,13 @@
         <v>1866</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1685,13 +1688,13 @@
         <v>1866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,7 +1750,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1759,13 +1762,13 @@
         <v>21913</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -1774,13 +1777,13 @@
         <v>46859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -1789,13 +1792,13 @@
         <v>68773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1813,13 @@
         <v>6673</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -1828,10 +1831,10 @@
         <v>31</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -1840,13 +1843,13 @@
         <v>23344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1864,13 @@
         <v>5541</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -1876,13 +1879,13 @@
         <v>8173</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -1891,13 +1894,13 @@
         <v>13715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,7 +1956,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1965,13 +1968,13 @@
         <v>17065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -1980,13 +1983,13 @@
         <v>41662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -1995,13 +1998,13 @@
         <v>58727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2019,13 @@
         <v>12994</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -2031,13 +2034,13 @@
         <v>18168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2070,10 +2073,10 @@
         <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2082,13 +2085,13 @@
         <v>2276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2097,13 +2100,13 @@
         <v>5495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,7 +2162,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2171,13 +2174,13 @@
         <v>22948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -2186,10 +2189,10 @@
         <v>65255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>143</v>
@@ -2515,7 +2518,7 @@
         <v>188</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,7 +2574,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
